--- a/Dados p. preencher.xlsx
+++ b/Dados p. preencher.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucasprs\Pictures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lprs9\Desktop\Ass_Email\BuscarExecutarArquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9015" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9012" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CAMED" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Nome_Funcionario</t>
   </si>
@@ -68,12 +68,36 @@
   <si>
     <t>email@camed.com.br</t>
   </si>
+  <si>
+    <t>Lucas Paiva</t>
+  </si>
+  <si>
+    <t>teste2</t>
+  </si>
+  <si>
+    <t>Lucas teste</t>
+  </si>
+  <si>
+    <t>testes2</t>
+  </si>
+  <si>
+    <t>testef2</t>
+  </si>
+  <si>
+    <t>(85) 91234-5678</t>
+  </si>
+  <si>
+    <t>(85) 1234-5678</t>
+  </si>
+  <si>
+    <t>email2@camed.com.br</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -111,6 +135,14 @@
       <color rgb="FF44546A"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -165,7 +197,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -199,6 +231,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Heading 3" xfId="2"/>
@@ -552,25 +585,25 @@
   <sheetPr codeName="Plan1"/>
   <dimension ref="A1:AMK57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="41.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" style="2" customWidth="1"/>
-    <col min="9" max="1025" width="9.140625" style="12" customWidth="1"/>
-    <col min="1026" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="29.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.44140625" style="2" customWidth="1"/>
+    <col min="9" max="1025" width="9.109375" style="12" customWidth="1"/>
+    <col min="1026" max="16384" width="9.109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1025" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -1613,11 +1646,13 @@
       <c r="AMJ1" s="10"/>
       <c r="AMK1" s="10"/>
     </row>
-    <row r="2" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1637,23 +1672,41 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1025" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1234</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="F4" s="4"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1661,7 +1714,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1669,7 +1722,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="6"/>
@@ -1677,7 +1730,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="6"/>
@@ -1685,7 +1738,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1693,7 +1746,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1701,7 +1754,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1709,7 +1762,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1717,7 +1770,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1725,7 +1778,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1733,7 +1786,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1741,7 +1794,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1749,7 +1802,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1757,7 +1810,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1765,7 +1818,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1773,7 +1826,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1781,7 +1834,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1789,7 +1842,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1797,7 +1850,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1805,7 +1858,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1813,7 +1866,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1821,7 +1874,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1829,7 +1882,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1837,7 +1890,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1845,7 +1898,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1853,7 +1906,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1861,7 +1914,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1869,7 +1922,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1877,7 +1930,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1885,7 +1938,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1893,7 +1946,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1901,7 +1954,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1909,7 +1962,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1917,7 +1970,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1925,7 +1978,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1933,7 +1986,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1941,7 +1994,7 @@
       <c r="G40" s="3"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1949,7 +2002,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1957,7 +2010,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1965,7 +2018,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1973,7 +2026,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1981,7 +2034,7 @@
       <c r="G45" s="3"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1989,7 +2042,7 @@
       <c r="G46" s="3"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1997,7 +2050,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2005,7 +2058,7 @@
       <c r="G48" s="3"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2013,7 +2066,7 @@
       <c r="G49" s="3"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2021,7 +2074,7 @@
       <c r="G50" s="3"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2029,7 +2082,7 @@
       <c r="G51" s="3"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="5"/>
       <c r="D52" s="1"/>
@@ -2037,7 +2090,7 @@
       <c r="G52" s="3"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="5"/>
       <c r="D53" s="1"/>
@@ -2045,7 +2098,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -2053,7 +2106,7 @@
       <c r="G54" s="3"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="5"/>
       <c r="D55" s="1"/>
@@ -2061,21 +2114,22 @@
       <c r="G55" s="3"/>
       <c r="H55" s="7"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="5"/>
       <c r="D56" s="1"/>
       <c r="G56" s="3"/>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E57" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>